--- a/data/trans_orig/LAWTONB_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8225EB-324E-48ED-9BFF-ECA88C11033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA7A9D1-3630-4CD2-83F1-A6371546E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56D00EB8-3D69-41D2-BEC0-03BEB65905EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F6FE886-1478-493F-8A77-03C452AE52D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="74">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -97,55 +97,55 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
   </si>
   <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -160,55 +160,49 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>31,07%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>68,93%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
   </si>
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
@@ -217,55 +211,55 @@
     <t>21,03%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
 </sst>
 </file>
@@ -677,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA660616-804D-470B-8F6B-42D7D0DFF739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38060BFB-A382-4549-A9E7-DC08111EDBCC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1806,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF62E862-47D0-406E-B057-79C0EDC35C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D01EF-BBDD-4C64-979E-95B7360208D8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2618,10 +2612,10 @@
         <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -2630,13 +2624,13 @@
         <v>286619</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>396</v>
@@ -2645,13 +2639,13 @@
         <v>436575</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2660,13 @@
         <v>409680</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -2681,13 +2675,13 @@
         <v>456356</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -2696,13 +2690,13 @@
         <v>866037</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,10 +2767,10 @@
         <v>39</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H22" s="7">
         <v>263</v>
@@ -2785,13 +2779,13 @@
         <v>286619</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2800,13 +2794,13 @@
         <v>436575</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2815,13 @@
         <v>409680</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>431</v>
@@ -2836,13 +2830,13 @@
         <v>456356</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M23" s="7">
         <v>802</v>
@@ -2851,13 +2845,13 @@
         <v>866037</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D381A4E0-04C6-4FEB-9685-AF3BCA56CD3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F67205-2771-42CA-9661-C15966F1CF4F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,7 +2946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3744,13 +3738,13 @@
         <v>124343</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -3759,13 +3753,13 @@
         <v>277505</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -3774,13 +3768,13 @@
         <v>401848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3789,13 @@
         <v>466985</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -3810,13 +3804,13 @@
         <v>500426</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -3825,13 +3819,13 @@
         <v>967411</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3893,13 @@
         <v>124343</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -3914,13 +3908,13 @@
         <v>277505</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -3929,13 +3923,13 @@
         <v>401848</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3944,13 @@
         <v>466985</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>432</v>
@@ -3965,13 +3959,13 @@
         <v>500426</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>920</v>
@@ -3980,13 +3974,13 @@
         <v>967411</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/LAWTONB_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA7A9D1-3630-4CD2-83F1-A6371546E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B484B8C5-1005-4224-937E-D86B229AAF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F6FE886-1478-493F-8A77-03C452AE52D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F351F41C-0441-4D66-9284-418226AF46E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="76">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -97,55 +97,55 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -160,106 +160,112 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>31,07%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>68,93%</t>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38060BFB-A382-4549-A9E7-DC08111EDBCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0049A38F-7021-4990-9D9B-CC79FC8ED489}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1800,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D01EF-BBDD-4C64-979E-95B7360208D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7793DE6E-0879-49CF-A68E-2EC33F725EE0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2612,10 +2618,10 @@
         <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7">
         <v>263</v>
@@ -2624,13 +2630,13 @@
         <v>286619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>396</v>
@@ -2639,13 +2645,13 @@
         <v>436575</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2666,13 @@
         <v>409680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -2675,13 +2681,13 @@
         <v>456356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -2690,13 +2696,13 @@
         <v>866037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,10 +2773,10 @@
         <v>39</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7">
         <v>263</v>
@@ -2779,13 +2785,13 @@
         <v>286619</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="7">
         <v>396</v>
@@ -2794,13 +2800,13 @@
         <v>436575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2821,13 @@
         <v>409680</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>431</v>
@@ -2830,13 +2836,13 @@
         <v>456356</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M23" s="7">
         <v>802</v>
@@ -2845,13 +2851,13 @@
         <v>866037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F67205-2771-42CA-9661-C15966F1CF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018AA355-C740-427D-AED6-D5AFC84F1DD6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2946,7 +2952,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3738,13 +3744,13 @@
         <v>124343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <v>223</v>
@@ -3753,13 +3759,13 @@
         <v>277505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -3768,13 +3774,13 @@
         <v>401848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3795,13 @@
         <v>466985</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -3804,13 +3810,13 @@
         <v>500426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>920</v>
@@ -3819,13 +3825,13 @@
         <v>967411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3899,13 @@
         <v>124343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -3908,13 +3914,13 @@
         <v>277505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -3923,13 +3929,13 @@
         <v>401848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3950,13 @@
         <v>466985</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>432</v>
@@ -3959,13 +3965,13 @@
         <v>500426</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>920</v>
@@ -3974,13 +3980,13 @@
         <v>967411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/LAWTONB_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B484B8C5-1005-4224-937E-D86B229AAF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49158E92-5835-4C63-8840-47C113E01B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F351F41C-0441-4D66-9284-418226AF46E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3814A17C-A182-4549-81FC-F0C720AC4063}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="76">
   <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -97,55 +97,55 @@
     <t>26,31%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>69,05%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -154,118 +154,118 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0049A38F-7021-4990-9D9B-CC79FC8ED489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F921ED9-1223-41F5-A228-4B1BC68C3BE4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1806,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7793DE6E-0879-49CF-A68E-2EC33F725EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED853AD4-13BB-40EF-B7D6-AF94B19A1A5D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018AA355-C740-427D-AED6-D5AFC84F1DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67DC063-47B1-4DA8-BF2D-3031D81BB6B6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
